--- a/towerStatic/InputData/tornado.xlsx
+++ b/towerStatic/InputData/tornado.xlsx
@@ -11,14 +11,14 @@
     <sheet name="radial_velocity" sheetId="3" r:id="rId2"/>
     <sheet name="axial_velocity" sheetId="4" r:id="rId3"/>
     <sheet name="Wind Load Points" sheetId="1" r:id="rId4"/>
-    <sheet name="Projected Area" sheetId="5" r:id="rId5"/>
+    <sheet name="projected_area" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,18 +57,6 @@
   </si>
   <si>
     <t>L2-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X(m)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y(m)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z(m)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -112,11 +100,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L1</t>
+    <t>X(mm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L2</t>
+    <t>Y(mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z(mm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,20 +484,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1641,20 +1633,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -2789,20 +2781,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -3927,7 +3919,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3944,33 +3936,69 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>18500</v>
+      </c>
+      <c r="C3">
+        <v>18500</v>
+      </c>
+      <c r="D3">
+        <v>32000</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>-18500</v>
+      </c>
+      <c r="C4">
+        <v>18500</v>
+      </c>
+      <c r="D4">
+        <v>32000</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>-18500</v>
+      </c>
+      <c r="C5">
+        <v>-18500</v>
+      </c>
+      <c r="D5">
+        <v>32000</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
+      </c>
+      <c r="B6">
+        <v>18500</v>
+      </c>
+      <c r="C6">
+        <v>-18500</v>
+      </c>
+      <c r="D6">
+        <v>32000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -4005,43 +4033,72 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>97</v>
+      </c>
+      <c r="C4">
+        <v>97</v>
+      </c>
+      <c r="D4">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>24</v>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>97</v>
+      </c>
+      <c r="C5">
+        <v>97</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/towerStatic/InputData/tornado.xlsx
+++ b/towerStatic/InputData/tornado.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="862" activeTab="3"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="862" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tangential_velocity" sheetId="2" r:id="rId1"/>
     <sheet name="radial_velocity" sheetId="3" r:id="rId2"/>
     <sheet name="axial_velocity" sheetId="4" r:id="rId3"/>
-    <sheet name="Wind Load Points" sheetId="1" r:id="rId4"/>
+    <sheet name="wind_load_points" sheetId="1" r:id="rId4"/>
     <sheet name="projected_area" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -18,45 +18,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Coordinates</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2-4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -116,9 +84,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00000"/>
     <numFmt numFmtId="177" formatCode="0.000000"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="180" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -156,16 +126,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -473,7 +445,7 @@
   <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -483,21 +455,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1623,7 +1595,7 @@
   <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1632,21 +1604,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -2780,21 +2752,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -3916,109 +3888,719 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>18500</v>
+      </c>
+      <c r="C4" s="4">
+        <v>18500</v>
+      </c>
+      <c r="D4" s="4">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-18500</v>
+      </c>
+      <c r="C5" s="4">
+        <v>18500</v>
+      </c>
+      <c r="D5" s="4">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-18500</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-18500</v>
+      </c>
+      <c r="D6" s="4">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>18500</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-18500</v>
+      </c>
+      <c r="D7" s="4">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>14750</v>
+      </c>
+      <c r="C8" s="4">
+        <v>14750</v>
+      </c>
+      <c r="D8" s="4">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-14750</v>
+      </c>
+      <c r="C9" s="4">
+        <v>14750</v>
+      </c>
+      <c r="D9" s="4">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-14750</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-14750</v>
+      </c>
+      <c r="D10" s="4">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4">
+        <v>14750</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-14750</v>
+      </c>
+      <c r="D11" s="4">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11000</v>
+      </c>
+      <c r="C12" s="4">
+        <v>11000</v>
+      </c>
+      <c r="D12" s="4">
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <v>-11000</v>
+      </c>
+      <c r="C13" s="4">
+        <v>11000</v>
+      </c>
+      <c r="D13" s="4">
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
+        <v>-11000</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-11000</v>
+      </c>
+      <c r="D14" s="4">
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4">
+        <v>11000</v>
+      </c>
+      <c r="C15" s="4">
+        <v>-11000</v>
+      </c>
+      <c r="D15" s="4">
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4">
+        <v>8610.0499999999993</v>
+      </c>
+      <c r="C16" s="4">
+        <v>8610</v>
+      </c>
+      <c r="D16" s="4">
+        <v>129910.62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4">
+        <v>-8610.0499999999993</v>
+      </c>
+      <c r="C17" s="4">
+        <v>8610</v>
+      </c>
+      <c r="D17" s="4">
+        <v>129910.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4">
+        <v>-8610.0499999999993</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-8610</v>
+      </c>
+      <c r="D18" s="4">
+        <v>129910.62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4">
+        <v>8610.0499999999993</v>
+      </c>
+      <c r="C19" s="4">
+        <v>-8610</v>
+      </c>
+      <c r="D19" s="4">
+        <v>129910.62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4">
+        <v>6747.47</v>
+      </c>
+      <c r="C20" s="4">
+        <v>6747.47</v>
+      </c>
+      <c r="D20" s="4">
+        <v>159455.87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4">
+        <v>-6747.47</v>
+      </c>
+      <c r="C21" s="4">
+        <v>6747.47</v>
+      </c>
+      <c r="D21" s="4">
+        <v>159455.87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4">
+        <v>-6747.47</v>
+      </c>
+      <c r="C22" s="4">
+        <v>-6747.47</v>
+      </c>
+      <c r="D22" s="4">
+        <v>159455.87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B23" s="4">
+        <v>6747.47</v>
+      </c>
+      <c r="C23" s="4">
+        <v>-6747.47</v>
+      </c>
+      <c r="D23" s="4">
+        <v>159455.87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B24" s="4">
+        <v>5172.6499999999996</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5172.6499999999996</v>
+      </c>
+      <c r="D24" s="4">
+        <v>184436.43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>18500</v>
-      </c>
-      <c r="C3">
-        <v>18500</v>
-      </c>
-      <c r="D3">
+      <c r="B25" s="4">
+        <v>-5172.6499999999996</v>
+      </c>
+      <c r="C25" s="4">
+        <v>5172.6499999999996</v>
+      </c>
+      <c r="D25" s="4">
+        <v>184436.43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4">
+        <v>-5172.6499999999996</v>
+      </c>
+      <c r="C26" s="4">
+        <v>-5172.6499999999996</v>
+      </c>
+      <c r="D26" s="4">
+        <v>184436.43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4">
+        <v>5172.6499999999996</v>
+      </c>
+      <c r="C27" s="4">
+        <v>-5172.6499999999996</v>
+      </c>
+      <c r="D27" s="4">
+        <v>184436.43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4">
+        <v>3750.21</v>
+      </c>
+      <c r="C28" s="4">
+        <v>3750.21</v>
+      </c>
+      <c r="D28" s="4">
+        <v>207000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4">
+        <v>-3750.21</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3750.21</v>
+      </c>
+      <c r="D29" s="4">
+        <v>207000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4">
+        <v>-3750.21</v>
+      </c>
+      <c r="C30" s="4">
+        <v>-3750.21</v>
+      </c>
+      <c r="D30" s="4">
+        <v>207000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4">
+        <v>3750.21</v>
+      </c>
+      <c r="C31" s="4">
+        <v>-3750.21</v>
+      </c>
+      <c r="D31" s="4">
+        <v>207000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4">
+        <v>3750.21</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3750.21</v>
+      </c>
+      <c r="D32" s="4">
+        <v>223000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4">
+        <v>-3750.21</v>
+      </c>
+      <c r="C33" s="4">
+        <v>3750.21</v>
+      </c>
+      <c r="D33" s="4">
+        <v>223000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4">
+        <v>-3750.21</v>
+      </c>
+      <c r="C34" s="4">
+        <v>-3750.21</v>
+      </c>
+      <c r="D34" s="4">
+        <v>223000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4">
+        <v>3750.21</v>
+      </c>
+      <c r="C35" s="4">
+        <v>-3750.21</v>
+      </c>
+      <c r="D35" s="4">
+        <v>223000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4">
+        <v>3750.21</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3750.21</v>
+      </c>
+      <c r="D36" s="4">
+        <v>243500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4">
+        <v>-3750.21</v>
+      </c>
+      <c r="C37" s="4">
+        <v>3750.21</v>
+      </c>
+      <c r="D37" s="4">
+        <v>243500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4">
+        <v>-3750.21</v>
+      </c>
+      <c r="C38" s="4">
+        <v>-3750.21</v>
+      </c>
+      <c r="D38" s="4">
+        <v>243500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4">
+        <v>3750.21</v>
+      </c>
+      <c r="C39" s="4">
+        <v>-3750.21</v>
+      </c>
+      <c r="D39" s="4">
+        <v>243500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1890</v>
+      </c>
+      <c r="C40" s="4">
         <v>32000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-18500</v>
-      </c>
-      <c r="C4">
-        <v>18500</v>
-      </c>
-      <c r="D4">
+      <c r="D40" s="4">
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4">
+        <v>-1890</v>
+      </c>
+      <c r="C41" s="4">
         <v>32000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-18500</v>
-      </c>
-      <c r="C5">
-        <v>-18500</v>
-      </c>
-      <c r="D5">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>18500</v>
-      </c>
-      <c r="C6">
-        <v>-18500</v>
-      </c>
-      <c r="D6">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="D41" s="4">
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4">
+        <v>-1890</v>
+      </c>
+      <c r="C42" s="4">
+        <v>-32000</v>
+      </c>
+      <c r="D42" s="4">
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1890</v>
+      </c>
+      <c r="C43" s="4">
+        <v>-32000</v>
+      </c>
+      <c r="D43" s="4">
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1890</v>
+      </c>
+      <c r="C44" s="4">
+        <v>19500</v>
+      </c>
+      <c r="D44" s="4">
+        <v>237500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" s="4">
+        <v>-1890</v>
+      </c>
+      <c r="C45" s="4">
+        <v>19500</v>
+      </c>
+      <c r="D45" s="4">
+        <v>237500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4">
+        <v>-1890</v>
+      </c>
+      <c r="C46" s="4">
+        <v>-19500</v>
+      </c>
+      <c r="D46" s="4">
+        <v>237500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1890</v>
+      </c>
+      <c r="C47" s="4">
+        <v>-19500</v>
+      </c>
+      <c r="D47" s="4">
+        <v>237500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1243.3</v>
+      </c>
+      <c r="C48" s="4">
+        <v>25000.5</v>
+      </c>
+      <c r="D48" s="4">
+        <v>247444.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" s="4">
+        <v>-1243.3</v>
+      </c>
+      <c r="C49" s="4">
+        <v>25000.5</v>
+      </c>
+      <c r="D49" s="4">
+        <v>247444.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4">
+        <v>-1243.3</v>
+      </c>
+      <c r="C50" s="4">
+        <v>-25000.5</v>
+      </c>
+      <c r="D50" s="4">
+        <v>247444.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1243.3</v>
+      </c>
+      <c r="C51" s="4">
+        <v>-25000.5</v>
+      </c>
+      <c r="D51" s="4">
+        <v>247444.7</v>
       </c>
     </row>
   </sheetData>
@@ -4033,33 +4615,37 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -4077,28 +4663,168 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>97</v>
-      </c>
-      <c r="C4">
-        <v>97</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
+      <c r="B4" s="6">
+        <v>187.46600000000001</v>
+      </c>
+      <c r="C4" s="6">
+        <v>187.46600000000001</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>97</v>
-      </c>
-      <c r="C5">
-        <v>97</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
+      <c r="B5" s="6">
+        <v>152.32</v>
+      </c>
+      <c r="C5" s="6">
+        <v>152.32</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>132.05199999999999</v>
+      </c>
+      <c r="C6" s="6">
+        <v>132.05199999999999</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>156.75899999999999</v>
+      </c>
+      <c r="C7" s="6">
+        <v>156.75899999999999</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>105.178</v>
+      </c>
+      <c r="C8" s="6">
+        <v>105.178</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6">
+        <v>74.566000000000003</v>
+      </c>
+      <c r="C9" s="6">
+        <v>121.235</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6">
+        <v>63.914000000000001</v>
+      </c>
+      <c r="C10" s="6">
+        <v>63.914000000000001</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <v>40.847000000000001</v>
+      </c>
+      <c r="C11" s="6">
+        <v>40.847000000000001</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6">
+        <v>54.734999999999999</v>
+      </c>
+      <c r="C12" s="6">
+        <v>54.734999999999999</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
+        <v>69.977999999999994</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6">
+        <v>38.634</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6">
+        <v>27.114999999999998</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4107,5 +4833,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>